--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3I3I3I3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59806C58-E651-47B0-B167-BBFE407E4180}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98625F-97EC-476A-AF90-53B54DF4C1F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,25 +395,25 @@
     <t>Feeder_4_Channel_AssociatedBusbar</t>
   </si>
   <si>
+    <t>DSP_1_Feeder_Map_0</t>
+  </si>
+  <si>
+    <t>DSP_1_Feeder_Map_1</t>
+  </si>
+  <si>
+    <t>DSP_1_Feeder_Map_2</t>
+  </si>
+  <si>
+    <t>DSP_2_Feeder_Map_0</t>
+  </si>
+  <si>
+    <t>DSP_2_Feeder_Map_1</t>
+  </si>
+  <si>
+    <t>DSP_2_Feeder_Map_2</t>
+  </si>
+  <si>
     <t>DSP_Feeder_Map</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_0</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_1</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_2</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_0</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_1</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_2</t>
   </si>
 </sst>
 </file>
@@ -772,14 +772,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>82</v>
@@ -787,7 +790,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -803,31 +806,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2">
         <v>-1</v>
@@ -843,8 +846,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +900,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1194,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1996,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
